--- a/Characterized Motors (Gears)v2.xlsx
+++ b/Characterized Motors (Gears)v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ftc\RobotPhysics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9FA91C34-EECA-4D09-BAF4-C31D22496C0F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E43CEF4A-8247-4E0B-8385-6A914832FD0D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26265" windowHeight="14385" xr2:uid="{14A2B7E8-0450-4740-9EA4-16D83E10B3D8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>AM 20 A</t>
   </si>
@@ -187,6 +187,42 @@
       <t/>
     </r>
   </si>
+  <si>
+    <t>Ticks/Rev</t>
+  </si>
+  <si>
+    <t>Motor (before gearbox)</t>
+  </si>
+  <si>
+    <t>Tetrix</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>W39530</t>
+  </si>
+  <si>
+    <t>am-3102</t>
+  </si>
+  <si>
+    <t>am-2964a</t>
+  </si>
+  <si>
+    <t>am-3103</t>
+  </si>
+  <si>
+    <t>am-3461</t>
+  </si>
+  <si>
+    <t>REV-41-1300</t>
+  </si>
+  <si>
+    <t>14-0011</t>
+  </si>
+  <si>
+    <t>KeFw</t>
+  </si>
 </sst>
 </file>
 
@@ -198,7 +234,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +268,14 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,15 +364,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -348,25 +390,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -375,12 +402,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -396,9 +417,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -415,9 +433,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -441,10 +456,82 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -831,725 +918,1080 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CFCC7F-C224-4D44-904F-DA8570B84C46}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="18" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="21" customWidth="1"/>
-    <col min="9" max="11" width="8" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="14" style="5" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="46" customWidth="1"/>
+    <col min="11" max="13" width="8" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="31"/>
+    <col min="15" max="15" width="10.5703125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="11" t="s">
+    <row r="1" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="15" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="E2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="L2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="M2" s="19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="N2" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="20">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C3" s="29">
+      <c r="D3" s="20">
         <v>691</v>
       </c>
-      <c r="D3" s="41">
-        <f>C3/10^6</f>
+      <c r="E3" s="20">
+        <f>D3/10^6</f>
         <v>6.9099999999999999E-4</v>
       </c>
-      <c r="E3" s="30">
+      <c r="F3" s="21">
         <v>0.35099999999999998</v>
       </c>
-      <c r="F3" s="31">
-        <f>E3</f>
+      <c r="G3" s="22">
+        <f>F3</f>
         <v>0.35099999999999998</v>
       </c>
-      <c r="G3" s="32">
+      <c r="H3" s="23">
         <v>9.0109999999999989E-6</v>
       </c>
-      <c r="H3" s="33">
+      <c r="I3" s="39">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="I3" s="34">
+      <c r="J3" s="43">
+        <v>560</v>
+      </c>
+      <c r="K3" s="24">
         <v>20</v>
       </c>
-      <c r="J3" s="29">
+      <c r="L3" s="20">
         <v>0.9</v>
       </c>
-      <c r="K3" s="35">
+      <c r="M3" s="25">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="N3" s="53">
+        <f>F3/K3</f>
+        <v>1.755E-2</v>
+      </c>
+      <c r="O3" s="20">
+        <f>J3/K3</f>
+        <v>28</v>
+      </c>
+      <c r="P3" s="53">
+        <f>(2000*N3*PI()) / (O3)</f>
+        <v>3.9382107907500621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="25"/>
+      <c r="C4" s="20">
         <v>1.9</v>
       </c>
-      <c r="C4" s="29">
+      <c r="D4" s="20">
         <v>684</v>
       </c>
-      <c r="D4" s="41">
-        <f t="shared" ref="D4:D20" si="0">C4/10^6</f>
+      <c r="E4" s="20">
+        <f t="shared" ref="E4:E20" si="0">D4/10^6</f>
         <v>6.8400000000000004E-4</v>
       </c>
-      <c r="E4" s="30">
+      <c r="F4" s="21">
         <v>0.38900000000000001</v>
       </c>
-      <c r="F4" s="31">
-        <f t="shared" ref="F4:F20" si="1">E4</f>
+      <c r="G4" s="22">
+        <f t="shared" ref="G4:G20" si="1">F4</f>
         <v>0.38900000000000001</v>
       </c>
-      <c r="G4" s="32">
+      <c r="H4" s="23">
         <v>9.0109999999999989E-6</v>
       </c>
-      <c r="H4" s="33">
+      <c r="I4" s="39">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I4" s="34">
+      <c r="J4" s="43">
+        <v>560</v>
+      </c>
+      <c r="K4" s="24">
         <v>20</v>
       </c>
-      <c r="J4" s="29">
+      <c r="L4" s="20">
         <v>0.9</v>
       </c>
-      <c r="K4" s="35">
+      <c r="M4" s="25">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="N4" s="53">
+        <f t="shared" ref="N4:N14" si="2">F4/K4</f>
+        <v>1.9450000000000002E-2</v>
+      </c>
+      <c r="O4" s="20">
+        <f t="shared" ref="O4:O10" si="3">J4/K4</f>
+        <v>28</v>
+      </c>
+      <c r="P4" s="53">
+        <f t="shared" ref="P4:P20" si="4">(2000*N4*PI()) / (O4)</f>
+        <v>4.3645697937372487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="25"/>
+      <c r="C5" s="20">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C5" s="29">
+      <c r="D5" s="20">
         <v>717</v>
       </c>
-      <c r="D5" s="41">
+      <c r="E5" s="20">
         <f t="shared" si="0"/>
         <v>7.1699999999999997E-4</v>
       </c>
-      <c r="E5" s="30">
+      <c r="F5" s="21">
         <v>0.38500000000000001</v>
       </c>
-      <c r="F5" s="31">
+      <c r="G5" s="22">
         <f t="shared" si="1"/>
         <v>0.38500000000000001</v>
       </c>
-      <c r="G5" s="32">
+      <c r="H5" s="23">
         <v>8.930999999999998E-6</v>
       </c>
-      <c r="H5" s="33">
+      <c r="I5" s="39">
         <v>2.8E-3</v>
       </c>
-      <c r="I5" s="34">
+      <c r="J5" s="43">
+        <v>560</v>
+      </c>
+      <c r="K5" s="24">
         <v>20</v>
       </c>
-      <c r="J5" s="29">
+      <c r="L5" s="20">
         <v>0.9</v>
       </c>
-      <c r="K5" s="35">
+      <c r="M5" s="25">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="N5" s="53">
+        <f t="shared" si="2"/>
+        <v>1.925E-2</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="P5" s="53">
+        <f t="shared" si="4"/>
+        <v>4.319689898685966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2">
         <v>2.5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="2">
         <v>674</v>
       </c>
-      <c r="D6" s="42">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>6.7400000000000001E-4</v>
       </c>
-      <c r="E6" s="13">
+      <c r="F6" s="9">
         <v>0.753</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="1"/>
         <v>0.753</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="4">
         <v>2.2210000000000002E-5</v>
       </c>
-      <c r="H6" s="19">
+      <c r="I6" s="40">
         <v>0.22689999999999999</v>
       </c>
-      <c r="I6" s="17">
+      <c r="J6" s="44">
+        <v>1120</v>
+      </c>
+      <c r="K6" s="11">
         <v>40</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>0.9</v>
       </c>
-      <c r="K6" s="14">
+      <c r="M6" s="10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="N6" s="54">
+        <f t="shared" si="2"/>
+        <v>1.8825000000000001E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <f>J6/K6</f>
+        <v>28</v>
+      </c>
+      <c r="P6" s="54">
+        <f t="shared" si="4"/>
+        <v>4.2243201217019903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="49"/>
+      <c r="C7" s="2">
         <v>3.8</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="2">
         <v>705</v>
       </c>
-      <c r="D7" s="42">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>7.0500000000000001E-4</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="9">
         <v>0.70499999999999996</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="1"/>
         <v>0.70499999999999996</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="4">
         <v>1.7410000000000001E-5</v>
       </c>
-      <c r="H7" s="19">
+      <c r="I7" s="40">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I7" s="17">
+      <c r="J7" s="44">
+        <v>1120</v>
+      </c>
+      <c r="K7" s="11">
         <v>40</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>0.9</v>
       </c>
-      <c r="K7" s="14">
+      <c r="M7" s="10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="N7" s="54">
+        <f t="shared" si="2"/>
+        <v>1.7624999999999998E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="P7" s="54">
+        <f t="shared" si="4"/>
+        <v>3.9550407513942929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="49"/>
+      <c r="C8" s="2">
         <v>2.1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="2">
         <v>716</v>
       </c>
-      <c r="D8" s="42">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>7.1599999999999995E-4</v>
       </c>
-      <c r="E8" s="13">
+      <c r="F8" s="9">
         <v>0.76300000000000001</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>0.76300000000000001</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="4">
         <v>2.4710000000000002E-5</v>
       </c>
-      <c r="H8" s="20">
+      <c r="I8" s="41">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I8" s="17">
+      <c r="J8" s="45">
+        <v>1120</v>
+      </c>
+      <c r="K8" s="11">
         <v>40</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
         <v>0.9</v>
       </c>
-      <c r="K8" s="14">
+      <c r="M8" s="10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="N8" s="54">
+        <f t="shared" si="2"/>
+        <v>1.9075000000000002E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="P8" s="54">
+        <f t="shared" si="4"/>
+        <v>4.2804199905160933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="20">
         <v>3.3</v>
       </c>
-      <c r="C9" s="29">
+      <c r="D9" s="20">
         <v>694</v>
       </c>
-      <c r="D9" s="41">
+      <c r="E9" s="20">
         <f t="shared" si="0"/>
         <v>6.9399999999999996E-4</v>
       </c>
-      <c r="E9" s="30">
+      <c r="F9" s="21">
         <v>1.0660000000000001</v>
       </c>
-      <c r="F9" s="31">
+      <c r="G9" s="22">
         <f t="shared" si="1"/>
         <v>1.0660000000000001</v>
       </c>
-      <c r="G9" s="32">
+      <c r="H9" s="23">
         <v>1.041E-5</v>
       </c>
-      <c r="H9" s="33">
+      <c r="I9" s="39">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="I9" s="34">
+      <c r="J9" s="43">
+        <v>1680</v>
+      </c>
+      <c r="K9" s="24">
         <v>60</v>
       </c>
-      <c r="J9" s="29">
+      <c r="L9" s="20">
         <v>0.9</v>
       </c>
-      <c r="K9" s="35">
+      <c r="M9" s="25">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="N9" s="53">
+        <f t="shared" si="2"/>
+        <v>1.7766666666666667E-2</v>
+      </c>
+      <c r="O9" s="20">
+        <f>J9/K9</f>
+        <v>28</v>
+      </c>
+      <c r="P9" s="53">
+        <f t="shared" si="4"/>
+        <v>3.9868306770556181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="25"/>
+      <c r="C10" s="20">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C10" s="29">
+      <c r="D10" s="20">
         <v>696</v>
       </c>
-      <c r="D10" s="41">
+      <c r="E10" s="20">
         <f t="shared" si="0"/>
         <v>6.96E-4</v>
       </c>
-      <c r="E10" s="30">
+      <c r="F10" s="21">
         <v>1.0760000000000001</v>
       </c>
-      <c r="F10" s="31">
+      <c r="G10" s="22">
         <f t="shared" si="1"/>
         <v>1.0760000000000001</v>
       </c>
-      <c r="G10" s="32">
+      <c r="H10" s="23">
         <v>8.4209999999999995E-6</v>
       </c>
-      <c r="H10" s="33">
+      <c r="I10" s="39">
         <v>0.02</v>
       </c>
-      <c r="I10" s="34">
+      <c r="J10" s="43">
+        <v>1680</v>
+      </c>
+      <c r="K10" s="24">
         <v>60</v>
       </c>
-      <c r="J10" s="29">
+      <c r="L10" s="20">
         <v>0.9</v>
       </c>
-      <c r="K10" s="35">
+      <c r="M10" s="25">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="35"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="N10" s="53">
+        <f t="shared" si="2"/>
+        <v>1.7933333333333336E-2</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="P10" s="53">
+        <f t="shared" si="4"/>
+        <v>4.0242305895983552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="53"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2">
         <v>8.9</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="2">
         <v>679</v>
       </c>
-      <c r="D12" s="42">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>6.7900000000000002E-4</v>
       </c>
-      <c r="E12" s="13">
+      <c r="F12" s="9">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="1"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="4">
         <v>2.7910000000000002E-5</v>
       </c>
-      <c r="H12" s="19">
+      <c r="I12" s="40">
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="I12" s="17">
+      <c r="J12" s="44">
+        <f>K12*O12</f>
+        <v>44.400000000000006</v>
+      </c>
+      <c r="K12" s="11">
         <v>3.7</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1">
         <v>0.9</v>
       </c>
-      <c r="K12" s="14">
+      <c r="M12" s="10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="N12" s="54">
+        <f t="shared" si="2"/>
+        <v>2.6756756756756758E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>12</v>
+      </c>
+      <c r="P12" s="54">
+        <f t="shared" si="4"/>
+        <v>14.009805076819347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="49"/>
+      <c r="C13" s="2">
         <v>2.6</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="2">
         <v>797</v>
       </c>
-      <c r="D13" s="42">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>7.9699999999999997E-4</v>
       </c>
-      <c r="E13" s="13">
+      <c r="F13" s="9">
         <v>0.108</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>0.108</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="4">
         <v>3.1510000000000002E-5</v>
       </c>
-      <c r="H13" s="19">
+      <c r="I13" s="40">
         <v>1.76E-4</v>
       </c>
-      <c r="I13" s="17">
+      <c r="J13" s="44">
+        <f t="shared" ref="J13:J14" si="5">K13*O13</f>
+        <v>44.400000000000006</v>
+      </c>
+      <c r="K13" s="11">
         <v>3.7</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>0.9</v>
       </c>
-      <c r="K13" s="14">
+      <c r="M13" s="10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="N13" s="54">
+        <f t="shared" si="2"/>
+        <v>2.9189189189189186E-2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>12</v>
+      </c>
+      <c r="P13" s="54">
+        <f t="shared" si="4"/>
+        <v>15.28342372016656</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="49"/>
+      <c r="C14" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="2">
         <v>880</v>
       </c>
-      <c r="D14" s="42">
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>8.8000000000000003E-4</v>
       </c>
-      <c r="E14" s="13">
+      <c r="F14" s="9">
         <v>0.105</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>0.105</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="4">
         <v>3.0910000000000007E-5</v>
       </c>
-      <c r="H14" s="19">
+      <c r="I14" s="40">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="I14" s="17">
+      <c r="J14" s="45">
+        <f t="shared" si="5"/>
+        <v>44.400000000000006</v>
+      </c>
+      <c r="K14" s="11">
         <v>3.7</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>0.9</v>
       </c>
-      <c r="K14" s="14">
+      <c r="M14" s="10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="N14" s="54">
+        <f t="shared" si="2"/>
+        <v>2.8378378378378376E-2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>12</v>
+      </c>
+      <c r="P14" s="54">
+        <f t="shared" si="4"/>
+        <v>14.858884172384156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="20">
         <v>3.8</v>
       </c>
-      <c r="C15" s="29">
+      <c r="D15" s="20">
         <v>718</v>
       </c>
-      <c r="D15" s="41">
+      <c r="E15" s="20">
         <f t="shared" si="0"/>
         <v>7.18E-4</v>
       </c>
-      <c r="E15" s="30">
+      <c r="F15" s="21">
         <v>0.34</v>
       </c>
-      <c r="F15" s="31">
+      <c r="G15" s="22">
         <f t="shared" si="1"/>
         <v>0.34</v>
       </c>
-      <c r="G15" s="32">
+      <c r="H15" s="23">
         <v>9.4309999999999983E-6</v>
       </c>
-      <c r="H15" s="33">
+      <c r="I15" s="39">
         <v>1.5100000000000001E-3</v>
       </c>
-      <c r="I15" s="34">
+      <c r="J15" s="43">
+        <f>K15*O15</f>
+        <v>1478.3999999999999</v>
+      </c>
+      <c r="K15" s="24">
         <v>52.8</v>
       </c>
-      <c r="J15" s="29">
+      <c r="L15" s="20">
         <v>0.9</v>
       </c>
-      <c r="K15" s="35">
+      <c r="M15" s="25">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="N15" s="53">
+        <f>F15/K15</f>
+        <v>6.4393939393939401E-3</v>
+      </c>
+      <c r="O15" s="20">
+        <v>28</v>
+      </c>
+      <c r="P15" s="53">
+        <f t="shared" si="4"/>
+        <v>1.4449966209693315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="25"/>
+      <c r="C16" s="20">
         <v>7.8</v>
       </c>
-      <c r="C16" s="29">
+      <c r="D16" s="20">
         <v>777</v>
       </c>
-      <c r="D16" s="41">
+      <c r="E16" s="20">
         <f t="shared" si="0"/>
         <v>7.7700000000000002E-4</v>
       </c>
-      <c r="E16" s="30">
+      <c r="F16" s="21">
         <v>0.36299999999999999</v>
       </c>
-      <c r="F16" s="31">
+      <c r="G16" s="22">
         <f t="shared" si="1"/>
         <v>0.36299999999999999</v>
       </c>
-      <c r="G16" s="32">
+      <c r="H16" s="23">
         <v>7.760999999999999E-6</v>
       </c>
-      <c r="H16" s="33">
+      <c r="I16" s="39">
         <v>1.91E-3</v>
       </c>
-      <c r="I16" s="34">
+      <c r="J16" s="43">
+        <f t="shared" ref="J16:J20" si="6">K16*O16</f>
+        <v>1478.3999999999999</v>
+      </c>
+      <c r="K16" s="24">
         <v>52.8</v>
       </c>
-      <c r="J16" s="29">
+      <c r="L16" s="20">
         <v>0.9</v>
       </c>
-      <c r="K16" s="35">
+      <c r="M16" s="25">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="N16" s="53">
+        <f t="shared" ref="N16:N20" si="7">F16/K16</f>
+        <v>6.875E-3</v>
+      </c>
+      <c r="O16" s="20">
+        <v>28</v>
+      </c>
+      <c r="P16" s="53">
+        <f t="shared" si="4"/>
+        <v>1.5427463923878448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="25"/>
+      <c r="C17" s="20">
         <v>20.6</v>
       </c>
-      <c r="C17" s="29">
+      <c r="D17" s="20">
         <v>658</v>
       </c>
-      <c r="D17" s="41">
+      <c r="E17" s="20">
         <f t="shared" si="0"/>
         <v>6.5799999999999995E-4</v>
       </c>
-      <c r="E17" s="30">
+      <c r="F17" s="21">
         <v>0.33800000000000002</v>
       </c>
-      <c r="F17" s="31">
+      <c r="G17" s="22">
         <f t="shared" si="1"/>
         <v>0.33800000000000002</v>
       </c>
-      <c r="G17" s="32">
+      <c r="H17" s="23">
         <v>7.2309999999999999E-6</v>
       </c>
-      <c r="H17" s="33">
+      <c r="I17" s="39">
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="I17" s="34">
+      <c r="J17" s="43">
+        <f t="shared" si="6"/>
+        <v>1478.3999999999999</v>
+      </c>
+      <c r="K17" s="24">
         <v>52.8</v>
       </c>
-      <c r="J17" s="29">
+      <c r="L17" s="20">
         <v>0.9</v>
       </c>
-      <c r="K17" s="35">
+      <c r="M17" s="25">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="N17" s="53">
+        <f t="shared" si="7"/>
+        <v>6.401515151515152E-3</v>
+      </c>
+      <c r="O17" s="20">
+        <v>28</v>
+      </c>
+      <c r="P17" s="53">
+        <f t="shared" si="4"/>
+        <v>1.4364966408459825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2">
         <v>3.6</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="2">
         <v>1356</v>
       </c>
-      <c r="D18" s="42">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>1.356E-3</v>
       </c>
-      <c r="E18" s="13">
+      <c r="F18" s="9">
         <v>0.82199999999999995</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="3">
         <f t="shared" si="1"/>
         <v>0.82199999999999995</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="4">
         <v>7.3310000000000009E-4</v>
       </c>
-      <c r="H18" s="19">
+      <c r="I18" s="40">
         <v>1.12E-2</v>
       </c>
-      <c r="I18" s="17">
-        <v>36.25</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="J18" s="44">
+        <f>K18*O18</f>
+        <v>288</v>
+      </c>
+      <c r="K18" s="11">
+        <v>72</v>
+      </c>
+      <c r="L18" s="1">
         <v>0.9</v>
       </c>
-      <c r="K18" s="14">
+      <c r="M18" s="10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="N18" s="54">
+        <f t="shared" si="7"/>
+        <v>1.1416666666666665E-2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>4</v>
+      </c>
+      <c r="P18" s="54">
+        <f t="shared" si="4"/>
+        <v>17.933258064241734</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="49"/>
+      <c r="C19" s="2">
         <v>11.3</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="2">
         <v>1352</v>
       </c>
-      <c r="D19" s="42">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>1.3519999999999999E-3</v>
       </c>
-      <c r="E19" s="13">
+      <c r="F19" s="9">
         <v>0.85799999999999998</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="3">
         <f t="shared" si="1"/>
         <v>0.85799999999999998</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="4">
         <v>6.5510000000000004E-4</v>
       </c>
-      <c r="H19" s="19">
+      <c r="I19" s="40">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I19" s="17">
-        <v>36.25</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="J19" s="44">
+        <f t="shared" si="6"/>
+        <v>288</v>
+      </c>
+      <c r="K19" s="11">
+        <v>72</v>
+      </c>
+      <c r="L19" s="1">
         <v>0.9</v>
       </c>
-      <c r="K19" s="14">
+      <c r="M19" s="10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="N19" s="54">
+        <f t="shared" si="7"/>
+        <v>1.1916666666666666E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>4</v>
+      </c>
+      <c r="P19" s="54">
+        <f t="shared" si="4"/>
+        <v>18.718656227639183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="49"/>
+      <c r="C20" s="2">
         <v>5.6</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="2">
         <v>1342</v>
       </c>
-      <c r="D20" s="42">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>1.3420000000000001E-3</v>
       </c>
-      <c r="E20" s="13">
+      <c r="F20" s="9">
         <v>0.71099999999999997</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="3">
         <f t="shared" si="1"/>
         <v>0.71099999999999997</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H20" s="4">
         <v>4.5410000000000003E-4</v>
       </c>
-      <c r="H20" s="20">
+      <c r="I20" s="41">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="I20" s="17">
-        <v>36.25</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="J20" s="45">
+        <f t="shared" si="6"/>
+        <v>288</v>
+      </c>
+      <c r="K20" s="11">
+        <v>72</v>
+      </c>
+      <c r="L20" s="1">
         <v>0.9</v>
       </c>
-      <c r="K20" s="14">
+      <c r="M20" s="10">
         <v>0.8</v>
       </c>
+      <c r="N20" s="54">
+        <f t="shared" si="7"/>
+        <v>9.8750000000000001E-3</v>
+      </c>
+      <c r="O20" s="1">
+        <v>4</v>
+      </c>
+      <c r="P20" s="54">
+        <f t="shared" si="4"/>
+        <v>15.511613727099604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="43">
+        <v>1440</v>
+      </c>
+      <c r="K21" s="24">
+        <v>52</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="20">
+        <f>J21/K21</f>
+        <v>27.692307692307693</v>
+      </c>
+      <c r="P21" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E1:H1"/>
+  <mergeCells count="3">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{9F9D7EA3-36AD-4AEF-BA86-3187827FCE45}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{D6FE9E68-13B0-4E76-9EFA-BA3FE326F4E4}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{BD8166F7-4517-4491-BCA2-9602D30C29F8}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{2EA564B5-625E-4C95-B96D-0CCDAF311258}"/>
+    <hyperlink ref="B18" r:id="rId5" xr:uid="{175E8996-E04D-4451-8B3A-7E39B893758E}"/>
+    <hyperlink ref="B21" r:id="rId6" xr:uid="{0823011C-5A12-4B6E-9735-610AC76ED1B6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>